--- a/Data/Characterization_factors/Regionalized_water_flows_CF_openio.xlsx
+++ b/Data/Characterization_factors/Regionalized_water_flows_CF_openio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\OpenIOCanada\Data\Characterization_factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7F04DA-C06B-41BE-A6F2-E6F6D39D69A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193BB203-DF98-4C67-8AE0-AE23243371BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,7 +487,7 @@
         <v>3.0620000000000002E-4</v>
       </c>
       <c r="C3">
-        <v>0.105</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>3.0620000000000002E-4</v>
       </c>
       <c r="C4">
-        <v>0.105</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>3.0620000000000002E-4</v>
       </c>
       <c r="C5">
-        <v>0.105</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3.0620000000000002E-4</v>
       </c>
       <c r="C6">
-        <v>0.105</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>3.0620000000000002E-4</v>
       </c>
       <c r="C7">
-        <v>0.105</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>3.0620000000000002E-4</v>
       </c>
       <c r="C8">
-        <v>0.105</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>3.0620000000000002E-4</v>
       </c>
       <c r="C9">
-        <v>0.105</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>3.0620000000000002E-4</v>
       </c>
       <c r="C10">
-        <v>0.105</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>3.0620000000000002E-4</v>
       </c>
       <c r="C11">
-        <v>0.105</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>3.0620000000000002E-4</v>
       </c>
       <c r="C12">
-        <v>0.105</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>3.0620000000000002E-4</v>
       </c>
       <c r="C13">
-        <v>0.105</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>3.0620000000000002E-4</v>
       </c>
       <c r="C14">
-        <v>0.105</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>3.0620000000000002E-4</v>
       </c>
       <c r="C15">
-        <v>0.105</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D15">
         <v>0</v>
